--- a/JSON-Tools/ExcelData/3export_orders.xlsx
+++ b/JSON-Tools/ExcelData/3export_orders.xlsx
@@ -7,212 +7,504 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Export Daten" sheetId="1" r:id="rId2"/>
+    <sheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Dashboard &amp; Analyse" sheetId="2" r:id="rId7"/>
   </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="125725" fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kunde</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erstellt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vertreter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SKU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Einzelreis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeilenwert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lieferadresse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lieferdatum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gesamtbetrag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Innotech AG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shipped</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M. Wagner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Musterstraße 12, 80331 München</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parkallee 7, 28209 Bremen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Proline GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cancelled</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T. Becker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Industriestraße 88, 90402 Nürnberg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>processing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hauptstraße 4, 45130 Essen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CloudNet GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A. Schulz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kranbau SE</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>M. Wagner</t>
+  </si>
+  <si>
+    <t>shipped</t>
+  </si>
+  <si>
+    <t>T. Becker</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>A. Schulz</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Kunde</t>
+  </si>
+  <si>
+    <t>Erstellt</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Vertreter</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Einzelreis</t>
+  </si>
+  <si>
+    <t>Zeilenwert</t>
+  </si>
+  <si>
+    <t>Lieferadresse</t>
+  </si>
+  <si>
+    <t>Lieferdatum</t>
+  </si>
+  <si>
+    <t>Gesamtbetrag</t>
+  </si>
+  <si>
+    <t>Innotech AG</t>
+  </si>
+  <si>
+    <t>Z300</t>
+  </si>
+  <si>
+    <t>Musterstraße 12, 80331 München</t>
+  </si>
+  <si>
+    <t>X101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Parkallee 7, 28209 Bremen</t>
+  </si>
+  <si>
+    <t>Proline GmbH</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>Industriestraße 88, 90402 Nürnberg</t>
+  </si>
+  <si>
+    <t>Y201</t>
+  </si>
+  <si>
+    <t>Hauptstraße 4, 45130 Essen</t>
+  </si>
+  <si>
+    <t>CloudNet GmbH</t>
+  </si>
+  <si>
+    <t>Y200</t>
+  </si>
+  <si>
+    <t>Kranbau SE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
-    <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="164" formatCode="dd.MM.yyyy"/>
-    <x:numFmt numFmtId="165" formatCode="#,##0.00 €"/>
+    <numFmt xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" formatCode=""/>
+    <numFmt xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" formatCode="dd.MM.yyyy"/>
+    <numFmt xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" formatCode="#,##0.00 €"/>
   </x:numFmts>
   <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+    <font xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:vertAlign xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="baseline"/>
+      <d:sz xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="11"/>
+      <d:color xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" rgb="FF000000"/>
+      <d:name xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="Calibri"/>
+      <d:family xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="2"/>
+    </font>
+    <font xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:b xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:vertAlign xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="baseline"/>
+      <d:sz xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="11"/>
+      <d:color xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" rgb="FF000000"/>
+      <d:name xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="Calibri"/>
+      <d:family xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="2"/>
+    </font>
   </x:fonts>
   <x:fills count="3">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFD3D3D3"/>
-      </x:patternFill>
-    </x:fill>
+    <fill xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:patternFill xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" patternType="none"/>
+    </fill>
+    <fill xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:patternFill xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" patternType="gray125"/>
+    </fill>
+    <fill xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:patternFill xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" patternType="solid">
+        <d:fgColor rgb="FFD3D3D3"/>
+      </d:patternFill>
+    </fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
+    <border xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:left xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:right xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:top xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:bottom xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:diagonal xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+    </border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellXfs count="1">
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Umsatz pro Vertreter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gesamtumsatz</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dashboard &amp; Analyse'!$Z$1:$Z$3</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dashboard &amp; Analyse'!$AA$1:$AA$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Vertreter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Umsatz in €</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0 €" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Status Übersicht</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Anzahl Bestellungen</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dashboard &amp; Analyse'!$AC$1:$AC$3</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dashboard &amp; Analyse'!$AD$1:$AD$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchorCtr="1" anchor="ctr" wrap="square" vert="horz" vertOverflow="ellipsis" spcFirstLastPara="1" rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="RepChart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="StatusChart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -509,75 +801,75 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.996339" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="10.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.853482" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="5.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.282054" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.853482" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="10.853482" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="32.853482" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="11.567768" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.996339" customWidth="1"/>
+    <x:col min="2" max="2" width="15.424911" customWidth="1"/>
+    <x:col min="3" max="4" width="10.424911" customWidth="1"/>
+    <x:col min="5" max="5" width="10.853482" customWidth="1"/>
+    <x:col min="6" max="6" width="5.139196" customWidth="1"/>
+    <x:col min="7" max="7" width="7.282054" customWidth="1"/>
+    <x:col min="8" max="8" width="9.853482" customWidth="1"/>
+    <x:col min="9" max="9" width="10.853482" customWidth="1"/>
+    <x:col min="10" max="10" width="32.853482" customWidth="1"/>
+    <x:col min="11" max="11" width="11.567768" customWidth="1"/>
+    <x:col min="12" max="12" width="13.710625" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:12">
+    <x:row r="1">
       <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L1" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:12">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
       <x:c r="A2" s="0">
         <x:v>4000</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C2" s="2">
         <x:v>45200</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G2" s="0">
         <x:v>9</x:v>
@@ -589,7 +881,7 @@
         <x:v>6424.56</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K2" s="4">
         <x:v>45203</x:v>
@@ -598,24 +890,24 @@
         <x:v>15471</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:12">
+    <x:row r="3">
       <x:c r="A3" s="0">
         <x:v>4000</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>45200</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:v>6</x:v>
@@ -627,7 +919,7 @@
         <x:v>7378.86</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K3" s="4">
         <x:v>45203</x:v>
@@ -636,24 +928,24 @@
         <x:v>15471</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:12">
+    <x:row r="4">
       <x:c r="A4" s="0">
         <x:v>4000</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>45200</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="0">
         <x:v>6</x:v>
@@ -665,7 +957,7 @@
         <x:v>1667.58</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K4" s="4">
         <x:v>45203</x:v>
@@ -674,27 +966,27 @@
         <x:v>15471</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:12">
+    <x:row r="5">
       <x:c r="A5" s="0">
         <x:v>4001</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>45201</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H5" s="0">
         <x:v>0</x:v>
@@ -703,33 +995,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L5" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:12">
+    <x:row r="6">
       <x:c r="A6" s="0">
         <x:v>4002</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>45202</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G6" s="0">
         <x:v>4</x:v>
@@ -741,7 +1033,7 @@
         <x:v>1235</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K6" s="4">
         <x:v>45207</x:v>
@@ -750,24 +1042,24 @@
         <x:v>13715.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:12">
+    <x:row r="7">
       <x:c r="A7" s="0">
         <x:v>4002</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>45202</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G7" s="0">
         <x:v>10</x:v>
@@ -779,7 +1071,7 @@
         <x:v>3935.6</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K7" s="4">
         <x:v>45207</x:v>
@@ -788,24 +1080,24 @@
         <x:v>13715.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:12">
+    <x:row r="8">
       <x:c r="A8" s="0">
         <x:v>4002</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>45202</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G8" s="0">
         <x:v>5</x:v>
@@ -817,7 +1109,7 @@
         <x:v>8544.45</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K8" s="4">
         <x:v>45207</x:v>
@@ -826,24 +1118,24 @@
         <x:v>13715.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:12">
+    <x:row r="9">
       <x:c r="A9" s="0">
         <x:v>4003</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="2">
         <x:v>45203</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="G9" s="0">
         <x:v>2</x:v>
@@ -855,7 +1147,7 @@
         <x:v>2843.68</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K9" s="4">
         <x:v>45211</x:v>
@@ -864,24 +1156,24 @@
         <x:v>6074.26</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:12">
+    <x:row r="10">
       <x:c r="A10" s="0">
         <x:v>4003</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>45203</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G10" s="0">
         <x:v>3</x:v>
@@ -893,7 +1185,7 @@
         <x:v>3230.58</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K10" s="4">
         <x:v>45211</x:v>
@@ -902,24 +1194,24 @@
         <x:v>6074.26</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:12">
+    <x:row r="11">
       <x:c r="A11" s="0">
         <x:v>4004</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>45204</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="0">
         <x:v>2</x:v>
@@ -931,7 +1223,7 @@
         <x:v>3597.54</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K11" s="4">
         <x:v>45206</x:v>
@@ -940,21 +1232,21 @@
         <x:v>3597.54</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:12">
+    <x:row r="12">
       <x:c r="A12" s="0">
         <x:v>4005</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C12" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>30</x:v>
@@ -969,7 +1261,7 @@
         <x:v>7834.84</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K12" s="4">
         <x:v>45208</x:v>
@@ -978,24 +1270,24 @@
         <x:v>23606.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:12">
+    <x:row r="13">
       <x:c r="A13" s="0">
         <x:v>4005</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="0">
         <x:v>3</x:v>
@@ -1007,7 +1299,7 @@
         <x:v>4625.13</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K13" s="4">
         <x:v>45208</x:v>
@@ -1016,21 +1308,21 @@
         <x:v>23606.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:12">
+    <x:row r="14">
       <x:c r="A14" s="0">
         <x:v>4005</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>30</x:v>
@@ -1045,7 +1337,7 @@
         <x:v>3763.8</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K14" s="4">
         <x:v>45208</x:v>
@@ -1054,24 +1346,24 @@
         <x:v>23606.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:12">
+    <x:row r="15">
       <x:c r="A15" s="0">
         <x:v>4005</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G15" s="0">
         <x:v>7</x:v>
@@ -1083,7 +1375,7 @@
         <x:v>2620.17</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K15" s="4">
         <x:v>45208</x:v>
@@ -1092,24 +1384,24 @@
         <x:v>23606.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:12">
+    <x:row r="16">
       <x:c r="A16" s="0">
         <x:v>4005</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C16" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G16" s="0">
         <x:v>8</x:v>
@@ -1121,7 +1413,7 @@
         <x:v>4762.88</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K16" s="4">
         <x:v>45208</x:v>
@@ -1130,24 +1422,24 @@
         <x:v>23606.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:12">
+    <x:row r="17">
       <x:c r="A17" s="0">
         <x:v>4006</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C17" s="2">
         <x:v>45206</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G17" s="0">
         <x:v>10</x:v>
@@ -1159,7 +1451,7 @@
         <x:v>7282.9</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K17" s="4">
         <x:v>45212</x:v>
@@ -1168,24 +1460,24 @@
         <x:v>15260.18</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:12">
+    <x:row r="18">
       <x:c r="A18" s="0">
         <x:v>4006</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C18" s="2">
         <x:v>45206</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G18" s="0">
         <x:v>4</x:v>
@@ -1197,7 +1489,7 @@
         <x:v>7308.84</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K18" s="4">
         <x:v>45212</x:v>
@@ -1206,24 +1498,24 @@
         <x:v>15260.18</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:12">
+    <x:row r="19">
       <x:c r="A19" s="0">
         <x:v>4006</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="2">
         <x:v>45206</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G19" s="0">
         <x:v>2</x:v>
@@ -1235,7 +1527,7 @@
         <x:v>200.54</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K19" s="4">
         <x:v>45212</x:v>
@@ -1244,24 +1536,24 @@
         <x:v>15260.18</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:12">
+    <x:row r="20">
       <x:c r="A20" s="0">
         <x:v>4006</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C20" s="2">
         <x:v>45206</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G20" s="0">
         <x:v>2</x:v>
@@ -1273,7 +1565,7 @@
         <x:v>467.9</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K20" s="4">
         <x:v>45212</x:v>
@@ -1282,21 +1574,21 @@
         <x:v>15260.18</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:12">
+    <x:row r="21">
       <x:c r="A21" s="0">
         <x:v>4007</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C21" s="2">
         <x:v>45207</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>30</x:v>
@@ -1311,7 +1603,7 @@
         <x:v>10152.78</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K21" s="4">
         <x:v>45210</x:v>
@@ -1320,24 +1612,24 @@
         <x:v>13901.28</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:12">
+    <x:row r="22">
       <x:c r="A22" s="0">
         <x:v>4007</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="2">
         <x:v>45207</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G22" s="0">
         <x:v>2</x:v>
@@ -1349,7 +1641,7 @@
         <x:v>3748.5</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K22" s="4">
         <x:v>45210</x:v>
@@ -1358,7 +1650,7 @@
         <x:v>13901.28</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:12">
+    <x:row r="23">
       <x:c r="A23" s="0">
         <x:v>4008</x:v>
       </x:c>
@@ -1369,13 +1661,13 @@
         <x:v>45208</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G23" s="0">
         <x:v>10</x:v>
@@ -1387,7 +1679,7 @@
         <x:v>8150.5</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K23" s="4">
         <x:v>45215</x:v>
@@ -1396,7 +1688,7 @@
         <x:v>23611.98</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:12">
+    <x:row r="24">
       <x:c r="A24" s="0">
         <x:v>4008</x:v>
       </x:c>
@@ -1407,10 +1699,10 @@
         <x:v>45208</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
         <x:v>30</x:v>
@@ -1425,7 +1717,7 @@
         <x:v>3419.94</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K24" s="4">
         <x:v>45215</x:v>
@@ -1434,7 +1726,7 @@
         <x:v>23611.98</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:12">
+    <x:row r="25">
       <x:c r="A25" s="0">
         <x:v>4008</x:v>
       </x:c>
@@ -1445,13 +1737,13 @@
         <x:v>45208</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G25" s="0">
         <x:v>7</x:v>
@@ -1463,7 +1755,7 @@
         <x:v>12041.54</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K25" s="4">
         <x:v>45215</x:v>
@@ -1472,27 +1764,27 @@
         <x:v>23611.98</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:12">
+    <x:row r="26">
       <x:c r="A26" s="0">
         <x:v>4009</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C26" s="2">
         <x:v>45209</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H26" s="0">
         <x:v>0</x:v>
@@ -1501,16 +1793,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K26" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L26" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:12">
+    <x:row r="27">
       <x:c r="A27" s="0">
         <x:v>4010</x:v>
       </x:c>
@@ -1521,16 +1813,16 @@
         <x:v>45210</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H27" s="0">
         <x:v>0</x:v>
@@ -1539,33 +1831,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K27" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L27" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:12">
+    <x:row r="28">
       <x:c r="A28" s="0">
         <x:v>4011</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C28" s="2">
         <x:v>45211</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G28" s="0">
         <x:v>3</x:v>
@@ -1577,7 +1869,7 @@
         <x:v>4649.67</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K28" s="4">
         <x:v>45220</x:v>
@@ -1586,24 +1878,24 @@
         <x:v>17689.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:12">
+    <x:row r="29">
       <x:c r="A29" s="0">
         <x:v>4011</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C29" s="2">
         <x:v>45211</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G29" s="0">
         <x:v>5</x:v>
@@ -1615,7 +1907,7 @@
         <x:v>7856.8</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K29" s="4">
         <x:v>45220</x:v>
@@ -1624,24 +1916,24 @@
         <x:v>17689.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:12">
+    <x:row r="30">
       <x:c r="A30" s="0">
         <x:v>4011</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C30" s="2">
         <x:v>45211</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G30" s="0">
         <x:v>4</x:v>
@@ -1653,7 +1945,7 @@
         <x:v>5183.48</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K30" s="4">
         <x:v>45220</x:v>
@@ -1662,21 +1954,21 @@
         <x:v>17689.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:12">
+    <x:row r="31">
       <x:c r="A31" s="0">
         <x:v>4012</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C31" s="2">
         <x:v>45212</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>30</x:v>
@@ -1691,7 +1983,7 @@
         <x:v>1316.1</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K31" s="4">
         <x:v>45220</x:v>
@@ -1700,24 +1992,24 @@
         <x:v>2561.87</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:12">
+    <x:row r="32">
       <x:c r="A32" s="0">
         <x:v>4012</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C32" s="2">
         <x:v>45212</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G32" s="0">
         <x:v>2</x:v>
@@ -1729,7 +2021,7 @@
         <x:v>477.98</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K32" s="4">
         <x:v>45220</x:v>
@@ -1738,24 +2030,24 @@
         <x:v>2561.87</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:12">
+    <x:row r="33">
       <x:c r="A33" s="0">
         <x:v>4012</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C33" s="2">
         <x:v>45212</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G33" s="0">
         <x:v>9</x:v>
@@ -1767,7 +2059,7 @@
         <x:v>767.79</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K33" s="4">
         <x:v>45220</x:v>
@@ -1776,7 +2068,7 @@
         <x:v>2561.87</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:12">
+    <x:row r="34">
       <x:c r="A34" s="0">
         <x:v>4013</x:v>
       </x:c>
@@ -1787,13 +2079,13 @@
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G34" s="0">
         <x:v>5</x:v>
@@ -1805,7 +2097,7 @@
         <x:v>4681.35</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K34" s="4">
         <x:v>45214</x:v>
@@ -1814,7 +2106,7 @@
         <x:v>12132.84</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:12">
+    <x:row r="35">
       <x:c r="A35" s="0">
         <x:v>4013</x:v>
       </x:c>
@@ -1825,13 +2117,13 @@
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G35" s="0">
         <x:v>1</x:v>
@@ -1843,7 +2135,7 @@
         <x:v>1424.57</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K35" s="4">
         <x:v>45214</x:v>
@@ -1852,7 +2144,7 @@
         <x:v>12132.84</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:12">
+    <x:row r="36">
       <x:c r="A36" s="0">
         <x:v>4013</x:v>
       </x:c>
@@ -1863,13 +2155,13 @@
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G36" s="0">
         <x:v>4</x:v>
@@ -1881,7 +2173,7 @@
         <x:v>362.52</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K36" s="4">
         <x:v>45214</x:v>
@@ -1890,7 +2182,7 @@
         <x:v>12132.84</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:12">
+    <x:row r="37">
       <x:c r="A37" s="0">
         <x:v>4013</x:v>
       </x:c>
@@ -1901,13 +2193,13 @@
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G37" s="0">
         <x:v>8</x:v>
@@ -1919,7 +2211,7 @@
         <x:v>5664.4</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K37" s="4">
         <x:v>45214</x:v>
@@ -1928,7 +2220,7 @@
         <x:v>12132.84</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:12">
+    <x:row r="38">
       <x:c r="A38" s="0">
         <x:v>4014</x:v>
       </x:c>
@@ -1939,13 +2231,13 @@
         <x:v>45214</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G38" s="0">
         <x:v>6</x:v>
@@ -1957,7 +2249,7 @@
         <x:v>7001.22</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K38" s="4">
         <x:v>45221</x:v>
@@ -1966,7 +2258,7 @@
         <x:v>16578.26</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:12">
+    <x:row r="39">
       <x:c r="A39" s="0">
         <x:v>4014</x:v>
       </x:c>
@@ -1977,10 +2269,10 @@
         <x:v>45214</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
         <x:v>30</x:v>
@@ -1995,7 +2287,7 @@
         <x:v>9577.04</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K39" s="4">
         <x:v>45221</x:v>
@@ -2004,21 +2296,21 @@
         <x:v>16578.26</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:12">
+    <x:row r="40">
       <x:c r="A40" s="0">
         <x:v>4015</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C40" s="2">
         <x:v>45215</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>30</x:v>
@@ -2033,7 +2325,7 @@
         <x:v>958.19</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K40" s="4">
         <x:v>45221</x:v>
@@ -2042,24 +2334,24 @@
         <x:v>15033.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:12">
+    <x:row r="41">
       <x:c r="A41" s="0">
         <x:v>4015</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C41" s="2">
         <x:v>45215</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G41" s="0">
         <x:v>9</x:v>
@@ -2071,7 +2363,7 @@
         <x:v>9287.1</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K41" s="4">
         <x:v>45221</x:v>
@@ -2080,24 +2372,24 @@
         <x:v>15033.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:12">
+    <x:row r="42">
       <x:c r="A42" s="0">
         <x:v>4015</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C42" s="2">
         <x:v>45215</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G42" s="0">
         <x:v>3</x:v>
@@ -2109,7 +2401,7 @@
         <x:v>4787.91</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K42" s="4">
         <x:v>45221</x:v>
@@ -2118,24 +2410,24 @@
         <x:v>15033.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:12">
+    <x:row r="43">
       <x:c r="A43" s="0">
         <x:v>4016</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C43" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G43" s="0">
         <x:v>1</x:v>
@@ -2147,7 +2439,7 @@
         <x:v>1442.92</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K43" s="4">
         <x:v>45222</x:v>
@@ -2156,24 +2448,24 @@
         <x:v>19909.08</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:12">
+    <x:row r="44">
       <x:c r="A44" s="0">
         <x:v>4016</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C44" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G44" s="0">
         <x:v>1</x:v>
@@ -2185,7 +2477,7 @@
         <x:v>1905.92</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K44" s="4">
         <x:v>45222</x:v>
@@ -2194,24 +2486,24 @@
         <x:v>19909.08</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:12">
+    <x:row r="45">
       <x:c r="A45" s="0">
         <x:v>4016</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C45" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G45" s="0">
         <x:v>4</x:v>
@@ -2223,7 +2515,7 @@
         <x:v>3329.12</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K45" s="4">
         <x:v>45222</x:v>
@@ -2232,21 +2524,21 @@
         <x:v>19909.08</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:12">
+    <x:row r="46">
       <x:c r="A46" s="0">
         <x:v>4016</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C46" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
         <x:v>30</x:v>
@@ -2261,7 +2553,7 @@
         <x:v>13231.12</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K46" s="4">
         <x:v>45222</x:v>
@@ -2270,7 +2562,7 @@
         <x:v>19909.08</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:12">
+    <x:row r="47">
       <x:c r="A47" s="0">
         <x:v>4017</x:v>
       </x:c>
@@ -2281,10 +2573,10 @@
         <x:v>45217</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
         <x:v>30</x:v>
@@ -2299,7 +2591,7 @@
         <x:v>1084.52</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K47" s="4">
         <x:v>45227</x:v>
@@ -2308,7 +2600,7 @@
         <x:v>27599.07</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:12">
+    <x:row r="48">
       <x:c r="A48" s="0">
         <x:v>4017</x:v>
       </x:c>
@@ -2319,13 +2611,13 @@
         <x:v>45217</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G48" s="0">
         <x:v>5</x:v>
@@ -2337,7 +2629,7 @@
         <x:v>8398.75</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K48" s="4">
         <x:v>45227</x:v>
@@ -2346,7 +2638,7 @@
         <x:v>27599.07</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:12">
+    <x:row r="49">
       <x:c r="A49" s="0">
         <x:v>4017</x:v>
       </x:c>
@@ -2357,10 +2649,10 @@
         <x:v>45217</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
         <x:v>30</x:v>
@@ -2375,7 +2667,7 @@
         <x:v>5937.64</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K49" s="4">
         <x:v>45227</x:v>
@@ -2384,7 +2676,7 @@
         <x:v>27599.07</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:12">
+    <x:row r="50">
       <x:c r="A50" s="0">
         <x:v>4017</x:v>
       </x:c>
@@ -2395,13 +2687,13 @@
         <x:v>45217</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G50" s="0">
         <x:v>5</x:v>
@@ -2413,7 +2705,7 @@
         <x:v>4526.9</x:v>
       </x:c>
       <x:c r="J50" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K50" s="4">
         <x:v>45227</x:v>
@@ -2422,7 +2714,7 @@
         <x:v>27599.07</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:12">
+    <x:row r="51">
       <x:c r="A51" s="0">
         <x:v>4017</x:v>
       </x:c>
@@ -2433,13 +2725,13 @@
         <x:v>45217</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G51" s="0">
         <x:v>6</x:v>
@@ -2451,7 +2743,7 @@
         <x:v>7651.26</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K51" s="4">
         <x:v>45227</x:v>
@@ -2460,27 +2752,27 @@
         <x:v>27599.07</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:12">
+    <x:row r="52">
       <x:c r="A52" s="0">
         <x:v>4018</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C52" s="2">
         <x:v>45218</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F52" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H52" s="0">
         <x:v>0</x:v>
@@ -2489,33 +2781,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K52" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L52" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:12">
+    <x:row r="53">
       <x:c r="A53" s="0">
         <x:v>4019</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C53" s="2">
         <x:v>45219</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G53" s="0">
         <x:v>9</x:v>
@@ -2527,7 +2819,7 @@
         <x:v>1986.57</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K53" s="4">
         <x:v>45225</x:v>
@@ -2536,24 +2828,24 @@
         <x:v>1986.57</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:12">
+    <x:row r="54">
       <x:c r="A54" s="0">
         <x:v>4020</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C54" s="2">
         <x:v>45220</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G54" s="0">
         <x:v>6</x:v>
@@ -2565,7 +2857,7 @@
         <x:v>11827.08</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K54" s="4">
         <x:v>45228</x:v>
@@ -2574,24 +2866,24 @@
         <x:v>34372.83</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:12">
+    <x:row r="55">
       <x:c r="A55" s="0">
         <x:v>4020</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C55" s="2">
         <x:v>45220</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G55" s="0">
         <x:v>9</x:v>
@@ -2603,7 +2895,7 @@
         <x:v>14803.47</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K55" s="4">
         <x:v>45228</x:v>
@@ -2612,21 +2904,21 @@
         <x:v>34372.83</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:12">
+    <x:row r="56">
       <x:c r="A56" s="0">
         <x:v>4020</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C56" s="2">
         <x:v>45220</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
         <x:v>30</x:v>
@@ -2641,7 +2933,7 @@
         <x:v>2219.28</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K56" s="4">
         <x:v>45228</x:v>
@@ -2650,24 +2942,24 @@
         <x:v>34372.83</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:12">
+    <x:row r="57">
       <x:c r="A57" s="0">
         <x:v>4020</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C57" s="2">
         <x:v>45220</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G57" s="0">
         <x:v>6</x:v>
@@ -2679,7 +2971,7 @@
         <x:v>5523</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K57" s="4">
         <x:v>45228</x:v>
@@ -2688,21 +2980,21 @@
         <x:v>34372.83</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:12">
+    <x:row r="58">
       <x:c r="A58" s="0">
         <x:v>4021</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C58" s="2">
         <x:v>45221</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
         <x:v>30</x:v>
@@ -2717,7 +3009,7 @@
         <x:v>1982.96</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K58" s="4">
         <x:v>45227</x:v>
@@ -2726,24 +3018,24 @@
         <x:v>13047.26</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:12">
+    <x:row r="59">
       <x:c r="A59" s="0">
         <x:v>4021</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C59" s="2">
         <x:v>45221</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G59" s="0">
         <x:v>6</x:v>
@@ -2755,7 +3047,7 @@
         <x:v>11064.3</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K59" s="4">
         <x:v>45227</x:v>
@@ -2764,7 +3056,7 @@
         <x:v>13047.26</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:12">
+    <x:row r="60">
       <x:c r="A60" s="0">
         <x:v>4022</x:v>
       </x:c>
@@ -2775,54 +3067,54 @@
         <x:v>45222</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H60" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I60" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E60" s="0" t="s">
+      <x:c r="K60" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F60" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G60" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H60" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I60" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J60" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K60" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="L60" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:12">
+    <x:row r="61">
       <x:c r="A61" s="0">
         <x:v>4023</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C61" s="2">
         <x:v>45223</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H61" s="0">
         <x:v>0</x:v>
@@ -2831,33 +3123,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K61" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L61" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:12">
+    <x:row r="62">
       <x:c r="A62" s="0">
         <x:v>4024</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C62" s="2">
         <x:v>45224</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G62" s="0">
         <x:v>5</x:v>
@@ -2869,7 +3161,7 @@
         <x:v>4593.85</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K62" s="4">
         <x:v>45231</x:v>
@@ -2878,7 +3170,7 @@
         <x:v>4593.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:12">
+    <x:row r="63">
       <x:c r="A63" s="0">
         <x:v>4025</x:v>
       </x:c>
@@ -2889,10 +3181,10 @@
         <x:v>45225</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
         <x:v>30</x:v>
@@ -2907,7 +3199,7 @@
         <x:v>1197.28</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K63" s="4">
         <x:v>45228</x:v>
@@ -2916,7 +3208,7 @@
         <x:v>11033.52</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:12">
+    <x:row r="64">
       <x:c r="A64" s="0">
         <x:v>4025</x:v>
       </x:c>
@@ -2927,13 +3219,13 @@
         <x:v>45225</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G64" s="0">
         <x:v>8</x:v>
@@ -2945,7 +3237,7 @@
         <x:v>1884.48</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K64" s="4">
         <x:v>45228</x:v>
@@ -2954,7 +3246,7 @@
         <x:v>11033.52</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:12">
+    <x:row r="65">
       <x:c r="A65" s="0">
         <x:v>4025</x:v>
       </x:c>
@@ -2965,13 +3257,13 @@
         <x:v>45225</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G65" s="0">
         <x:v>8</x:v>
@@ -2983,7 +3275,7 @@
         <x:v>7951.76</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K65" s="4">
         <x:v>45228</x:v>
@@ -2992,27 +3284,27 @@
         <x:v>11033.52</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:12">
+    <x:row r="66">
       <x:c r="A66" s="0">
         <x:v>4026</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C66" s="2">
         <x:v>45226</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H66" s="0">
         <x:v>0</x:v>
@@ -3021,36 +3313,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K66" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L66" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:12">
+    <x:row r="67">
       <x:c r="A67" s="0">
         <x:v>4027</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C67" s="2">
         <x:v>45227</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H67" s="0">
         <x:v>0</x:v>
@@ -3059,33 +3351,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K67" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L67" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:12">
+    <x:row r="68">
       <x:c r="A68" s="0">
         <x:v>4028</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C68" s="2">
         <x:v>45228</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G68" s="0">
         <x:v>8</x:v>
@@ -3097,7 +3389,7 @@
         <x:v>11913.44</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K68" s="4">
         <x:v>45236</x:v>
@@ -3106,24 +3398,24 @@
         <x:v>15860.78</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:12">
+    <x:row r="69">
       <x:c r="A69" s="0">
         <x:v>4028</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C69" s="2">
         <x:v>45228</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G69" s="0">
         <x:v>3</x:v>
@@ -3135,7 +3427,7 @@
         <x:v>3947.34</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K69" s="4">
         <x:v>45236</x:v>
@@ -3144,24 +3436,24 @@
         <x:v>15860.78</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:12">
+    <x:row r="70">
       <x:c r="A70" s="0">
         <x:v>4029</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C70" s="2">
         <x:v>45229</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="E70" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F70" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="G70" s="0">
         <x:v>3</x:v>
@@ -3173,7 +3465,7 @@
         <x:v>3558.24</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K70" s="4">
         <x:v>45237</x:v>
@@ -3182,24 +3474,24 @@
         <x:v>12458.71</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:12">
+    <x:row r="71">
       <x:c r="A71" s="0">
         <x:v>4029</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C71" s="2">
         <x:v>45229</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G71" s="0">
         <x:v>1</x:v>
@@ -3211,7 +3503,7 @@
         <x:v>1867.01</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K71" s="4">
         <x:v>45237</x:v>
@@ -3220,24 +3512,24 @@
         <x:v>12458.71</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:12">
+    <x:row r="72">
       <x:c r="A72" s="0">
         <x:v>4029</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C72" s="2">
         <x:v>45229</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G72" s="0">
         <x:v>2</x:v>
@@ -3249,7 +3541,7 @@
         <x:v>3912.24</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K72" s="4">
         <x:v>45237</x:v>
@@ -3258,24 +3550,24 @@
         <x:v>12458.71</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:12">
+    <x:row r="73">
       <x:c r="A73" s="0">
         <x:v>4029</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C73" s="2">
         <x:v>45229</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G73" s="0">
         <x:v>2</x:v>
@@ -3287,7 +3579,7 @@
         <x:v>2123.2</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K73" s="4">
         <x:v>45237</x:v>
@@ -3296,24 +3588,24 @@
         <x:v>12458.71</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:12">
+    <x:row r="74">
       <x:c r="A74" s="0">
         <x:v>4029</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C74" s="2">
         <x:v>45229</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G74" s="0">
         <x:v>1</x:v>
@@ -3325,7 +3617,7 @@
         <x:v>998.02</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K74" s="4">
         <x:v>45237</x:v>
@@ -3334,21 +3626,21 @@
         <x:v>12458.71</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:12">
+    <x:row r="75">
       <x:c r="A75" s="0">
         <x:v>4030</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C75" s="2">
         <x:v>45200</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
         <x:v>30</x:v>
@@ -3363,7 +3655,7 @@
         <x:v>2537.54</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K75" s="4">
         <x:v>45209</x:v>
@@ -3372,24 +3664,24 @@
         <x:v>2537.54</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:12">
+    <x:row r="76">
       <x:c r="A76" s="0">
         <x:v>4031</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C76" s="2">
         <x:v>45201</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G76" s="0">
         <x:v>1</x:v>
@@ -3401,7 +3693,7 @@
         <x:v>1643.5</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K76" s="4">
         <x:v>45209</x:v>
@@ -3410,24 +3702,24 @@
         <x:v>6770.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:12">
+    <x:row r="77">
       <x:c r="A77" s="0">
         <x:v>4031</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C77" s="2">
         <x:v>45201</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G77" s="0">
         <x:v>4</x:v>
@@ -3439,7 +3731,7 @@
         <x:v>5127.16</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K77" s="4">
         <x:v>45209</x:v>
@@ -3448,27 +3740,27 @@
         <x:v>6770.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:12">
+    <x:row r="78">
       <x:c r="A78" s="0">
         <x:v>4032</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C78" s="2">
         <x:v>45202</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F78" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H78" s="0">
         <x:v>0</x:v>
@@ -3477,33 +3769,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K78" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L78" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:12">
+    <x:row r="79">
       <x:c r="A79" s="0">
         <x:v>4033</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C79" s="2">
         <x:v>45203</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G79" s="0">
         <x:v>10</x:v>
@@ -3515,7 +3807,7 @@
         <x:v>14813.7</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K79" s="4">
         <x:v>45209</x:v>
@@ -3524,24 +3816,24 @@
         <x:v>19745.06</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:12">
+    <x:row r="80">
       <x:c r="A80" s="0">
         <x:v>4033</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C80" s="2">
         <x:v>45203</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G80" s="0">
         <x:v>5</x:v>
@@ -3553,7 +3845,7 @@
         <x:v>3056.9</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K80" s="4">
         <x:v>45209</x:v>
@@ -3562,24 +3854,24 @@
         <x:v>19745.06</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:12">
+    <x:row r="81">
       <x:c r="A81" s="0">
         <x:v>4033</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C81" s="2">
         <x:v>45203</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G81" s="0">
         <x:v>6</x:v>
@@ -3591,7 +3883,7 @@
         <x:v>1874.46</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K81" s="4">
         <x:v>45209</x:v>
@@ -3600,24 +3892,24 @@
         <x:v>19745.06</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:12">
+    <x:row r="82">
       <x:c r="A82" s="0">
         <x:v>4034</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C82" s="2">
         <x:v>45204</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G82" s="0">
         <x:v>6</x:v>
@@ -3629,7 +3921,7 @@
         <x:v>6971.88</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K82" s="4">
         <x:v>45211</x:v>
@@ -3638,24 +3930,24 @@
         <x:v>30959</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:12">
+    <x:row r="83">
       <x:c r="A83" s="0">
         <x:v>4034</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C83" s="2">
         <x:v>45204</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G83" s="0">
         <x:v>4</x:v>
@@ -3667,7 +3959,7 @@
         <x:v>2738.32</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K83" s="4">
         <x:v>45211</x:v>
@@ -3676,24 +3968,24 @@
         <x:v>30959</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:12">
+    <x:row r="84">
       <x:c r="A84" s="0">
         <x:v>4034</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C84" s="2">
         <x:v>45204</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G84" s="0">
         <x:v>6</x:v>
@@ -3705,7 +3997,7 @@
         <x:v>9039.96</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K84" s="4">
         <x:v>45211</x:v>
@@ -3714,21 +4006,21 @@
         <x:v>30959</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:12">
+    <x:row r="85">
       <x:c r="A85" s="0">
         <x:v>4034</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C85" s="2">
         <x:v>45204</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
         <x:v>30</x:v>
@@ -3743,7 +4035,7 @@
         <x:v>7493.44</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K85" s="4">
         <x:v>45211</x:v>
@@ -3752,21 +4044,21 @@
         <x:v>30959</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:12">
+    <x:row r="86">
       <x:c r="A86" s="0">
         <x:v>4034</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C86" s="2">
         <x:v>45204</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
         <x:v>30</x:v>
@@ -3781,7 +4073,7 @@
         <x:v>4715.4</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K86" s="4">
         <x:v>45211</x:v>
@@ -3790,24 +4082,24 @@
         <x:v>30959</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:12">
+    <x:row r="87">
       <x:c r="A87" s="0">
         <x:v>4035</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C87" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G87" s="0">
         <x:v>6</x:v>
@@ -3819,7 +4111,7 @@
         <x:v>8886.84</x:v>
       </x:c>
       <x:c r="J87" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K87" s="4">
         <x:v>45214</x:v>
@@ -3828,24 +4120,24 @@
         <x:v>25775.64</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:12">
+    <x:row r="88">
       <x:c r="A88" s="0">
         <x:v>4035</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C88" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G88" s="0">
         <x:v>10</x:v>
@@ -3857,7 +4149,7 @@
         <x:v>2066.9</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K88" s="4">
         <x:v>45214</x:v>
@@ -3866,24 +4158,24 @@
         <x:v>25775.64</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:12">
+    <x:row r="89">
       <x:c r="A89" s="0">
         <x:v>4035</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C89" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G89" s="0">
         <x:v>3</x:v>
@@ -3895,7 +4187,7 @@
         <x:v>4238.28</x:v>
       </x:c>
       <x:c r="J89" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K89" s="4">
         <x:v>45214</x:v>
@@ -3904,24 +4196,24 @@
         <x:v>25775.64</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:12">
+    <x:row r="90">
       <x:c r="A90" s="0">
         <x:v>4035</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C90" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G90" s="0">
         <x:v>1</x:v>
@@ -3933,7 +4225,7 @@
         <x:v>151.87</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K90" s="4">
         <x:v>45214</x:v>
@@ -3942,24 +4234,24 @@
         <x:v>25775.64</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:12">
+    <x:row r="91">
       <x:c r="A91" s="0">
         <x:v>4035</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C91" s="2">
         <x:v>45205</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G91" s="0">
         <x:v>7</x:v>
@@ -3971,7 +4263,7 @@
         <x:v>10431.75</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K91" s="4">
         <x:v>45214</x:v>
@@ -3980,24 +4272,24 @@
         <x:v>25775.64</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:12">
+    <x:row r="92">
       <x:c r="A92" s="0">
         <x:v>4036</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C92" s="2">
         <x:v>45206</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G92" s="0">
         <x:v>4</x:v>
@@ -4009,7 +4301,7 @@
         <x:v>5818.32</x:v>
       </x:c>
       <x:c r="J92" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K92" s="4">
         <x:v>45215</x:v>
@@ -4018,24 +4310,24 @@
         <x:v>26532.27</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:12">
+    <x:row r="93">
       <x:c r="A93" s="0">
         <x:v>4036</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C93" s="2">
         <x:v>45206</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G93" s="0">
         <x:v>10</x:v>
@@ -4047,7 +4339,7 @@
         <x:v>15722</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K93" s="4">
         <x:v>45215</x:v>
@@ -4056,24 +4348,24 @@
         <x:v>26532.27</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:12">
+    <x:row r="94">
       <x:c r="A94" s="0">
         <x:v>4036</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C94" s="2">
         <x:v>45206</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G94" s="0">
         <x:v>5</x:v>
@@ -4085,7 +4377,7 @@
         <x:v>4991.95</x:v>
       </x:c>
       <x:c r="J94" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K94" s="4">
         <x:v>45215</x:v>
@@ -4094,7 +4386,7 @@
         <x:v>26532.27</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:12">
+    <x:row r="95">
       <x:c r="A95" s="0">
         <x:v>4037</x:v>
       </x:c>
@@ -4105,13 +4397,13 @@
         <x:v>45207</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G95" s="0">
         <x:v>10</x:v>
@@ -4123,7 +4415,7 @@
         <x:v>16696.8</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K95" s="4">
         <x:v>45208</x:v>
@@ -4132,7 +4424,7 @@
         <x:v>28515.96</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:12">
+    <x:row r="96">
       <x:c r="A96" s="0">
         <x:v>4037</x:v>
       </x:c>
@@ -4143,13 +4435,13 @@
         <x:v>45207</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G96" s="0">
         <x:v>6</x:v>
@@ -4161,7 +4453,7 @@
         <x:v>10497.36</x:v>
       </x:c>
       <x:c r="J96" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K96" s="4">
         <x:v>45208</x:v>
@@ -4170,7 +4462,7 @@
         <x:v>28515.96</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:12">
+    <x:row r="97">
       <x:c r="A97" s="0">
         <x:v>4037</x:v>
       </x:c>
@@ -4181,10 +4473,10 @@
         <x:v>45207</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
         <x:v>30</x:v>
@@ -4199,7 +4491,7 @@
         <x:v>1321.8</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K97" s="4">
         <x:v>45208</x:v>
@@ -4208,24 +4500,24 @@
         <x:v>28515.96</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:12">
+    <x:row r="98">
       <x:c r="A98" s="0">
         <x:v>4038</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C98" s="2">
         <x:v>45208</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G98" s="0">
         <x:v>5</x:v>
@@ -4237,7 +4529,7 @@
         <x:v>8765.05</x:v>
       </x:c>
       <x:c r="J98" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K98" s="4">
         <x:v>45213</x:v>
@@ -4246,27 +4538,27 @@
         <x:v>8765.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:12">
+    <x:row r="99">
       <x:c r="A99" s="0">
         <x:v>4039</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C99" s="2">
         <x:v>45209</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H99" s="0">
         <x:v>0</x:v>
@@ -4275,33 +4567,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J99" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K99" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L99" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:12">
+    <x:row r="100">
       <x:c r="A100" s="0">
         <x:v>4040</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C100" s="2">
         <x:v>45210</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G100" s="0">
         <x:v>10</x:v>
@@ -4313,7 +4605,7 @@
         <x:v>5459.8</x:v>
       </x:c>
       <x:c r="J100" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K100" s="4">
         <x:v>45215</x:v>
@@ -4322,21 +4614,21 @@
         <x:v>12753.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:12">
+    <x:row r="101">
       <x:c r="A101" s="0">
         <x:v>4040</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C101" s="2">
         <x:v>45210</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
         <x:v>30</x:v>
@@ -4351,7 +4643,7 @@
         <x:v>447.15</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K101" s="4">
         <x:v>45215</x:v>
@@ -4360,24 +4652,24 @@
         <x:v>12753.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:12">
+    <x:row r="102">
       <x:c r="A102" s="0">
         <x:v>4040</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C102" s="2">
         <x:v>45210</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G102" s="0">
         <x:v>2</x:v>
@@ -4389,7 +4681,7 @@
         <x:v>1947.58</x:v>
       </x:c>
       <x:c r="J102" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K102" s="4">
         <x:v>45215</x:v>
@@ -4398,24 +4690,24 @@
         <x:v>12753.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:12">
+    <x:row r="103">
       <x:c r="A103" s="0">
         <x:v>4040</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C103" s="2">
         <x:v>45210</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F103" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G103" s="0">
         <x:v>6</x:v>
@@ -4427,7 +4719,7 @@
         <x:v>708.96</x:v>
       </x:c>
       <x:c r="J103" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K103" s="4">
         <x:v>45215</x:v>
@@ -4436,24 +4728,24 @@
         <x:v>12753.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:12">
+    <x:row r="104">
       <x:c r="A104" s="0">
         <x:v>4040</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C104" s="2">
         <x:v>45210</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F104" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G104" s="0">
         <x:v>8</x:v>
@@ -4465,7 +4757,7 @@
         <x:v>4190</x:v>
       </x:c>
       <x:c r="J104" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K104" s="4">
         <x:v>45215</x:v>
@@ -4474,21 +4766,21 @@
         <x:v>12753.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:12">
+    <x:row r="105">
       <x:c r="A105" s="0">
         <x:v>4041</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C105" s="2">
         <x:v>45211</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
         <x:v>30</x:v>
@@ -4503,7 +4795,7 @@
         <x:v>4645.8</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K105" s="4">
         <x:v>45216</x:v>
@@ -4512,24 +4804,24 @@
         <x:v>28426.68</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:12">
+    <x:row r="106">
       <x:c r="A106" s="0">
         <x:v>4041</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C106" s="2">
         <x:v>45211</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F106" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G106" s="0">
         <x:v>8</x:v>
@@ -4541,7 +4833,7 @@
         <x:v>10888.8</x:v>
       </x:c>
       <x:c r="J106" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K106" s="4">
         <x:v>45216</x:v>
@@ -4550,24 +4842,24 @@
         <x:v>28426.68</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:12">
+    <x:row r="107">
       <x:c r="A107" s="0">
         <x:v>4041</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C107" s="2">
         <x:v>45211</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F107" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G107" s="0">
         <x:v>4</x:v>
@@ -4579,7 +4871,7 @@
         <x:v>1528.08</x:v>
       </x:c>
       <x:c r="J107" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K107" s="4">
         <x:v>45216</x:v>
@@ -4588,24 +4880,24 @@
         <x:v>28426.68</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:12">
+    <x:row r="108">
       <x:c r="A108" s="0">
         <x:v>4041</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C108" s="2">
         <x:v>45211</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F108" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G108" s="0">
         <x:v>10</x:v>
@@ -4617,7 +4909,7 @@
         <x:v>11364</x:v>
       </x:c>
       <x:c r="J108" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K108" s="4">
         <x:v>45216</x:v>
@@ -4626,21 +4918,21 @@
         <x:v>28426.68</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:12">
+    <x:row r="109">
       <x:c r="A109" s="0">
         <x:v>4042</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C109" s="2">
         <x:v>45212</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F109" s="0" t="s">
         <x:v>30</x:v>
@@ -4655,7 +4947,7 @@
         <x:v>3861.54</x:v>
       </x:c>
       <x:c r="J109" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K109" s="4">
         <x:v>45218</x:v>
@@ -4664,24 +4956,24 @@
         <x:v>3861.54</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:12">
+    <x:row r="110">
       <x:c r="A110" s="0">
         <x:v>4043</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C110" s="2">
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F110" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G110" s="0">
         <x:v>2</x:v>
@@ -4693,7 +4985,7 @@
         <x:v>764.06</x:v>
       </x:c>
       <x:c r="J110" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K110" s="4">
         <x:v>45219</x:v>
@@ -4702,24 +4994,24 @@
         <x:v>16474.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:12">
+    <x:row r="111">
       <x:c r="A111" s="0">
         <x:v>4043</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C111" s="2">
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="E111" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F111" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="G111" s="0">
         <x:v>6</x:v>
@@ -4731,7 +5023,7 @@
         <x:v>10626.12</x:v>
       </x:c>
       <x:c r="J111" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K111" s="4">
         <x:v>45219</x:v>
@@ -4740,21 +5032,21 @@
         <x:v>16474.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:12">
+    <x:row r="112">
       <x:c r="A112" s="0">
         <x:v>4043</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C112" s="2">
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F112" s="0" t="s">
         <x:v>30</x:v>
@@ -4769,7 +5061,7 @@
         <x:v>706.92</x:v>
       </x:c>
       <x:c r="J112" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K112" s="4">
         <x:v>45219</x:v>
@@ -4778,24 +5070,24 @@
         <x:v>16474.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:12">
+    <x:row r="113">
       <x:c r="A113" s="0">
         <x:v>4043</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C113" s="2">
         <x:v>45213</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="E113" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F113" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="G113" s="0">
         <x:v>10</x:v>
@@ -4807,7 +5099,7 @@
         <x:v>4377.6</x:v>
       </x:c>
       <x:c r="J113" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K113" s="4">
         <x:v>45219</x:v>
@@ -4816,27 +5108,27 @@
         <x:v>16474.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:12">
+    <x:row r="114">
       <x:c r="A114" s="0">
         <x:v>4044</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C114" s="2">
         <x:v>45214</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F114" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H114" s="0">
         <x:v>0</x:v>
@@ -4845,33 +5137,33 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K114" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L114" s="3">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:12">
+    <x:row r="115">
       <x:c r="A115" s="0">
         <x:v>4045</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C115" s="2">
         <x:v>45215</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F115" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G115" s="0">
         <x:v>2</x:v>
@@ -4883,7 +5175,7 @@
         <x:v>3099.08</x:v>
       </x:c>
       <x:c r="J115" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K115" s="4">
         <x:v>45220</x:v>
@@ -4892,24 +5184,24 @@
         <x:v>3099.08</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:12">
+    <x:row r="116">
       <x:c r="A116" s="0">
         <x:v>4046</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C116" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F116" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G116" s="0">
         <x:v>8</x:v>
@@ -4921,7 +5213,7 @@
         <x:v>13278.64</x:v>
       </x:c>
       <x:c r="J116" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K116" s="4">
         <x:v>45221</x:v>
@@ -4930,24 +5222,24 @@
         <x:v>25757.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:12">
+    <x:row r="117">
       <x:c r="A117" s="0">
         <x:v>4046</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C117" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F117" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G117" s="0">
         <x:v>10</x:v>
@@ -4959,7 +5251,7 @@
         <x:v>8524</x:v>
       </x:c>
       <x:c r="J117" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K117" s="4">
         <x:v>45221</x:v>
@@ -4968,24 +5260,24 @@
         <x:v>25757.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:12">
+    <x:row r="118">
       <x:c r="A118" s="0">
         <x:v>4046</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C118" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F118" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G118" s="0">
         <x:v>8</x:v>
@@ -4997,7 +5289,7 @@
         <x:v>3240.8</x:v>
       </x:c>
       <x:c r="J118" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K118" s="4">
         <x:v>45221</x:v>
@@ -5006,24 +5298,24 @@
         <x:v>25757.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:12">
+    <x:row r="119">
       <x:c r="A119" s="0">
         <x:v>4046</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C119" s="2">
         <x:v>45216</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F119" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G119" s="0">
         <x:v>5</x:v>
@@ -5035,7 +5327,7 @@
         <x:v>714.15</x:v>
       </x:c>
       <x:c r="J119" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K119" s="4">
         <x:v>45221</x:v>
@@ -5044,7 +5336,7 @@
         <x:v>25757.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:12">
+    <x:row r="120">
       <x:c r="A120" s="0">
         <x:v>4047</x:v>
       </x:c>
@@ -5055,10 +5347,10 @@
         <x:v>45217</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F120" s="0" t="s">
         <x:v>30</x:v>
@@ -5073,7 +5365,7 @@
         <x:v>6918.9</x:v>
       </x:c>
       <x:c r="J120" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K120" s="4">
         <x:v>45226</x:v>
@@ -5082,7 +5374,7 @@
         <x:v>12038.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:12">
+    <x:row r="121">
       <x:c r="A121" s="0">
         <x:v>4047</x:v>
       </x:c>
@@ -5093,13 +5385,13 @@
         <x:v>45217</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F121" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G121" s="0">
         <x:v>8</x:v>
@@ -5111,7 +5403,7 @@
         <x:v>5119.76</x:v>
       </x:c>
       <x:c r="J121" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K121" s="4">
         <x:v>45226</x:v>
@@ -5120,24 +5412,24 @@
         <x:v>12038.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:12">
+    <x:row r="122">
       <x:c r="A122" s="0">
         <x:v>4048</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C122" s="2">
         <x:v>45218</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F122" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G122" s="0">
         <x:v>3</x:v>
@@ -5149,7 +5441,7 @@
         <x:v>2690.85</x:v>
       </x:c>
       <x:c r="J122" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K122" s="4">
         <x:v>45228</x:v>
@@ -5158,24 +5450,24 @@
         <x:v>5783.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:12">
+    <x:row r="123">
       <x:c r="A123" s="0">
         <x:v>4048</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C123" s="2">
         <x:v>45218</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F123" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G123" s="0">
         <x:v>4</x:v>
@@ -5187,7 +5479,7 @@
         <x:v>3092.2</x:v>
       </x:c>
       <x:c r="J123" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K123" s="4">
         <x:v>45228</x:v>
@@ -5196,7 +5488,7 @@
         <x:v>5783.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:12">
+    <x:row r="124">
       <x:c r="A124" s="0">
         <x:v>4049</x:v>
       </x:c>
@@ -5207,16 +5499,16 @@
         <x:v>45219</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F124" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G124" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H124" s="0">
         <x:v>0</x:v>
@@ -5225,10 +5517,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J124" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K124" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L124" s="3">
         <x:v>0</x:v>
@@ -5241,4 +5533,60 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="Z1:AD3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="Z1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="0">
+        <v>206571.32</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>142373.77</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="Z3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>228946.78</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>